--- a/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>LKCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,156 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
-        <v>43190</v>
-      </c>
       <c r="G7" s="2">
+        <v>43281</v>
+      </c>
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E8" s="3">
         <v>5700</v>
       </c>
-      <c r="E8" s="3">
-        <v>14900</v>
-      </c>
       <c r="F8" s="3">
-        <v>6100</v>
+        <v>8400</v>
       </c>
       <c r="G8" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H8" s="3">
         <v>26100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E9" s="3">
         <v>4800</v>
       </c>
-      <c r="E9" s="3">
-        <v>6100</v>
-      </c>
       <c r="F9" s="3">
-        <v>800</v>
+        <v>2900</v>
       </c>
       <c r="G9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="3">
         <v>5500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
-        <v>8800</v>
-      </c>
       <c r="F10" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="G10" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H10" s="3">
         <v>20600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <v>-100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +826,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
-        <v>3300</v>
-      </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="3">
+        <v>500</v>
+      </c>
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +920,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>34000</v>
       </c>
       <c r="E17" s="3">
-        <v>29300</v>
+        <v>16300</v>
       </c>
       <c r="F17" s="3">
-        <v>2600</v>
+        <v>15000</v>
       </c>
       <c r="G17" s="3">
+        <v>16800</v>
+      </c>
+      <c r="H17" s="3">
         <v>33000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-20900</v>
       </c>
       <c r="E18" s="3">
-        <v>-14400</v>
+        <v>-10600</v>
       </c>
       <c r="F18" s="3">
-        <v>3500</v>
+        <v>-6600</v>
       </c>
       <c r="G18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-6900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,83 +1043,90 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4400</v>
       </c>
       <c r="G21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1097,54 +1137,60 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-21500</v>
       </c>
       <c r="E23" s="3">
-        <v>-15400</v>
+        <v>-10600</v>
       </c>
       <c r="F23" s="3">
-        <v>3500</v>
+        <v>-7300</v>
       </c>
       <c r="G23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-6800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
@@ -1152,11 +1198,14 @@
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-21400</v>
       </c>
       <c r="E26" s="3">
-        <v>-15400</v>
+        <v>-10600</v>
       </c>
       <c r="F26" s="3">
-        <v>3500</v>
+        <v>-7400</v>
       </c>
       <c r="G26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-6800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-21000</v>
       </c>
       <c r="E27" s="3">
-        <v>-15400</v>
+        <v>-10500</v>
       </c>
       <c r="F27" s="3">
-        <v>3500</v>
+        <v>-7400</v>
       </c>
       <c r="G27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-6800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1425,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>400</v>
       </c>
       <c r="E32" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G32" s="3">
+        <v>300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-21000</v>
       </c>
       <c r="E33" s="3">
-        <v>-15400</v>
+        <v>-10500</v>
       </c>
       <c r="F33" s="3">
-        <v>3500</v>
+        <v>-7400</v>
       </c>
       <c r="G33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-6800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-21000</v>
       </c>
       <c r="E35" s="3">
-        <v>-15400</v>
+        <v>-10500</v>
       </c>
       <c r="F35" s="3">
-        <v>3500</v>
+        <v>-7400</v>
       </c>
       <c r="G35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-6800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
-        <v>43190</v>
-      </c>
       <c r="G38" s="2">
+        <v>43281</v>
+      </c>
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1620,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
-        <v>200</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1682,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E43" s="3">
         <v>28500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30300</v>
       </c>
-      <c r="F43" s="3">
-        <v>32800</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
         <v>23900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1638,11 +1734,11 @@
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -1650,8 +1746,11 @@
       <c r="K44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,112 +1778,124 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E46" s="3">
         <v>28900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31500</v>
       </c>
-      <c r="F46" s="3">
-        <v>33000</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3">
         <v>23900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>200</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E49" s="3">
         <v>61800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>64500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
         <v>8400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>8400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>500</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
@@ -1793,10 +1904,13 @@
         <v>500</v>
       </c>
       <c r="K49" s="3">
+        <v>500</v>
+      </c>
+      <c r="L49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1870,20 +1990,23 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E54" s="3">
         <v>91500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>97100</v>
       </c>
-      <c r="F54" s="3">
-        <v>46200</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3">
         <v>37600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2096,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1975,120 +2106,132 @@
         <v>4300</v>
       </c>
       <c r="E57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
-        <v>9700</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
         <v>8800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>6100</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E59" s="3">
         <v>28600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33000</v>
       </c>
-      <c r="F59" s="3">
-        <v>19200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>16500</v>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H59" s="3">
-        <v>2600</v>
+        <v>10400</v>
       </c>
       <c r="I59" s="3">
         <v>2600</v>
       </c>
       <c r="J59" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E60" s="3">
         <v>33000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33700</v>
       </c>
-      <c r="F60" s="3">
-        <v>28800</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3">
         <v>25300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3500</v>
       </c>
       <c r="I60" s="3">
         <v>3500</v>
       </c>
       <c r="J60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>32900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2111,20 +2254,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2140,8 +2286,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33000</v>
+        <v>63500</v>
       </c>
       <c r="E66" s="3">
+        <v>32900</v>
+      </c>
+      <c r="F66" s="3">
         <v>34000</v>
       </c>
-      <c r="F66" s="3">
-        <v>28800</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3">
         <v>25300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3500</v>
       </c>
       <c r="I66" s="3">
         <v>3500</v>
       </c>
       <c r="J66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,13 +2492,16 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-41900</v>
       </c>
-      <c r="F72" s="3">
-        <v>-26200</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3">
         <v>-29900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E76" s="3">
         <v>58500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>63100</v>
       </c>
-      <c r="F76" s="3">
-        <v>17400</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3">
         <v>12300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
-        <v>43190</v>
-      </c>
       <c r="G80" s="2">
+        <v>43281</v>
+      </c>
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-21000</v>
       </c>
       <c r="E81" s="3">
-        <v>-15400</v>
+        <v>-10500</v>
       </c>
       <c r="F81" s="3">
-        <v>3500</v>
+        <v>-7400</v>
       </c>
       <c r="G81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-6800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,28 +2833,29 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
+      <c r="F83" s="3">
+        <v>2800</v>
       </c>
       <c r="G83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -2664,8 +2863,11 @@
       <c r="K83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-3600</v>
       </c>
       <c r="G89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,19 +3071,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -2871,8 +3092,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -2880,8 +3101,11 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,22 +3165,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+        <v>-14600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>600</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -2962,13 +3192,16 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,48 +3339,54 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2900</v>
       </c>
       <c r="G100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H100" s="3">
         <v>8900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
+      <c r="F101" s="3">
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3154,33 +3403,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-200</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>LKCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,169 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E8" s="3">
         <v>13100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E9" s="3">
         <v>10100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5500</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <v>-100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,40 +840,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E12" s="3">
         <v>4800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +908,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,8 +943,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +978,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +992,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>34000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-20900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,92 +1077,99 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1140,60 +1180,66 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
@@ -1201,11 +1247,14 @@
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1285,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1390,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1425,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1495,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1600,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,40 +1707,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,40 +1775,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E43" s="3">
         <v>37300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>30300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
         <v>23900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1737,11 +1833,11 @@
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -1749,8 +1845,11 @@
       <c r="L44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1781,124 +1880,136 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E46" s="3">
         <v>41000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31500</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3">
         <v>23900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E47" s="3">
         <v>16600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3">
         <v>5000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E49" s="3">
         <v>59000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>61800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>64500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
         <v>8400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>500</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -1907,10 +2018,13 @@
         <v>500</v>
       </c>
       <c r="L49" s="3">
+        <v>500</v>
+      </c>
+      <c r="M49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2090,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1993,20 +2113,23 @@
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2160,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E54" s="3">
         <v>117900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>91500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3">
         <v>37600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,40 +2227,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4300</v>
+        <v>2900</v>
       </c>
       <c r="E57" s="3">
         <v>4300</v>
       </c>
       <c r="F57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
         <v>8800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2146,96 +2280,105 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>6100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E59" s="3">
         <v>26400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
         <v>10400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2600</v>
       </c>
       <c r="J59" s="3">
         <v>2600</v>
       </c>
       <c r="K59" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E60" s="3">
         <v>30700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3">
         <v>25300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3500</v>
       </c>
       <c r="J60" s="3">
         <v>3500</v>
       </c>
       <c r="K60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>32900</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2257,23 +2400,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2289,8 +2435,11 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2540,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E66" s="3">
         <v>63500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3">
         <v>25300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3500</v>
       </c>
       <c r="J66" s="3">
         <v>3500</v>
       </c>
       <c r="K66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2660,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2504,7 +2672,7 @@
         <v>200</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2527,8 +2695,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,40 +2730,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-92200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-73400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-41900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
         <v>-29900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +2870,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E76" s="3">
         <v>54200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>58500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>63100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3">
         <v>12300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2940,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,31 +3032,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -2866,8 +3065,11 @@
       <c r="L83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3240,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,17 +3292,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -3095,8 +3316,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -3104,8 +3325,11 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,25 +3395,28 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>600</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3195,13 +3425,16 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3480,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,54 +3585,60 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E100" s="3">
         <v>31400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3406,36 +3655,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>LKCO</t>
   </si>
@@ -998,8 +998,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>24200</v>
       </c>
       <c r="E17" s="3">
         <v>34000</v>
@@ -1033,8 +1033,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-16900</v>
       </c>
       <c r="E18" s="3">
         <v>-20900</v>
@@ -1083,8 +1083,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>-400</v>
@@ -1118,8 +1118,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-14300</v>
       </c>
       <c r="E21" s="3">
         <v>-18500</v>
@@ -1223,8 +1223,8 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
@@ -1293,8 +1293,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-18900</v>
       </c>
       <c r="E26" s="3">
         <v>-21400</v>
@@ -1328,8 +1328,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-18800</v>
       </c>
       <c r="E27" s="3">
         <v>-21000</v>
@@ -1503,8 +1503,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>400</v>
@@ -1538,8 +1538,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-18800</v>
       </c>
       <c r="E33" s="3">
         <v>-21000</v>
@@ -1608,8 +1608,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-18800</v>
       </c>
       <c r="E35" s="3">
         <v>-21000</v>
@@ -2988,8 +2988,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-18800</v>
       </c>
       <c r="E81" s="3">
         <v>-21000</v>

--- a/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>LKCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,182 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E8" s="3">
         <v>7300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E9" s="3">
         <v>6700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
       </c>
       <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-100</v>
       </c>
       <c r="K10" s="3">
         <v>-100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,43 +854,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E12" s="3">
         <v>4300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="L12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,8 +928,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,8 +966,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1004,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,78 +1019,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E17" s="3">
         <v>24200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-16900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-20900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,101 +1111,108 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-400</v>
+        <v>4300</v>
       </c>
       <c r="E20" s="3">
         <v>-400</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1183,43 +1223,49 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1227,22 +1273,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
@@ -1250,11 +1296,14 @@
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1451,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1489,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,78 +1565,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
+        <v>-4300</v>
       </c>
       <c r="E32" s="3">
         <v>400</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,43 +1794,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,43 +1868,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
         <v>23900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1836,11 +1932,11 @@
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -1848,8 +1944,11 @@
       <c r="M44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1883,136 +1982,148 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>41000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3">
         <v>23900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E47" s="3">
         <v>53300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3">
         <v>5000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E49" s="3">
         <v>52700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>59000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>61800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>64500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
         <v>8400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>500</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
@@ -2021,10 +2132,13 @@
         <v>500</v>
       </c>
       <c r="M49" s="3">
+        <v>500</v>
+      </c>
+      <c r="N49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,8 +2210,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2116,20 +2236,23 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2286,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E54" s="3">
         <v>118000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>117900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>91500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>97100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3">
         <v>37600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,43 +2358,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>4300</v>
       </c>
       <c r="F57" s="3">
         <v>4300</v>
       </c>
       <c r="G57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
         <v>8800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>900</v>
       </c>
       <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2283,105 +2417,114 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>6100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E59" s="3">
         <v>26100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3">
         <v>10400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2600</v>
       </c>
       <c r="K59" s="3">
         <v>2600</v>
       </c>
       <c r="L59" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E60" s="3">
         <v>29000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3">
         <v>25300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3500</v>
       </c>
       <c r="K60" s="3">
         <v>3500</v>
       </c>
       <c r="L60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>32900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2403,26 +2546,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>34200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2438,8 +2584,11 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2698,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E66" s="3">
         <v>62800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>32900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3">
         <v>25300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3500</v>
       </c>
       <c r="K66" s="3">
         <v>3500</v>
       </c>
       <c r="L66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2675,7 +2843,7 @@
         <v>200</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +2904,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-113200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-92200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-73400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-41900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3">
         <v>-29900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3056,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E76" s="3">
         <v>55000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>54200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>63100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3">
         <v>12300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,34 +3231,35 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -3068,8 +3267,11 @@
       <c r="M83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,8 +3513,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3302,11 +3523,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -3319,8 +3540,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -3328,8 +3549,11 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,28 +3625,31 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>600</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -3428,13 +3658,16 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,60 +3831,66 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E100" s="3">
         <v>18500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>31400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3658,39 +3907,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>LKCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E8" s="3">
         <v>10900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E9" s="3">
         <v>10800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-100</v>
       </c>
       <c r="L10" s="3">
         <v>-100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,46 +868,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E12" s="3">
         <v>5100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,8 +948,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -969,8 +989,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E17" s="3">
         <v>34300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,110 +1145,117 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>4300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-400</v>
       </c>
       <c r="F20" s="3">
         <v>-400</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-16600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1226,72 +1266,78 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
@@ -1299,11 +1345,14 @@
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1635,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>400</v>
       </c>
       <c r="F32" s="3">
         <v>400</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,75 +1961,81 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E43" s="3">
         <v>12000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>30300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>23900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -1947,8 +2043,11 @@
       <c r="N44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1985,148 +2084,160 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E46" s="3">
         <v>12000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>23900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E47" s="3">
         <v>61600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>53300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>16600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>5000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>194200</v>
+      </c>
+      <c r="E49" s="3">
         <v>54700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>52700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>59000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>61800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>64500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>8400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>500</v>
       </c>
       <c r="L49" s="3">
         <v>500</v>
@@ -2135,10 +2246,13 @@
         <v>500</v>
       </c>
       <c r="N49" s="3">
+        <v>500</v>
+      </c>
+      <c r="O49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,13 +2330,16 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>1900</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -2239,20 +2359,23 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>233600</v>
+      </c>
+      <c r="E54" s="3">
         <v>129200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>117900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>91500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>97100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>37600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,46 +2489,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4300</v>
       </c>
       <c r="G57" s="3">
         <v>4300</v>
       </c>
       <c r="H57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>8800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>900</v>
       </c>
       <c r="L57" s="3">
         <v>900</v>
       </c>
       <c r="M57" s="3">
+        <v>900</v>
+      </c>
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2420,114 +2554,123 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>6100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E59" s="3">
         <v>67800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>10400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2600</v>
       </c>
       <c r="L59" s="3">
         <v>2600</v>
       </c>
       <c r="M59" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="N59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E60" s="3">
         <v>73600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>25300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3500</v>
       </c>
       <c r="L60" s="3">
         <v>3500</v>
       </c>
       <c r="M60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>2700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>32900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2549,29 +2692,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>34200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E66" s="3">
         <v>76600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>25300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3500</v>
       </c>
       <c r="L66" s="3">
         <v>3500</v>
       </c>
       <c r="M66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N66" s="3">
         <v>4000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2846,7 +3014,7 @@
         <v>200</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-141600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-113200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-92200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-73400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-41900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-29900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>135200</v>
+      </c>
+      <c r="E76" s="3">
         <v>52400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>54200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>63100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>12300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,37 +3430,38 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -3270,8 +3469,11 @@
       <c r="N83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,23 +3734,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3543,8 +3764,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -3552,8 +3773,11 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,31 +3855,34 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>600</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3661,13 +3891,16 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,66 +4077,72 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E100" s="3">
         <v>13000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>31400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3910,42 +4159,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>LKCO</t>
   </si>
@@ -1905,8 +1905,8 @@
       <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
+      <c r="J41" s="3">
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -1987,8 +1987,8 @@
       <c r="I43" s="3">
         <v>30300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+      <c r="J43" s="3">
+        <v>23900</v>
       </c>
       <c r="K43" s="3">
         <v>23900</v>
@@ -2010,26 +2010,26 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -2110,8 +2110,8 @@
       <c r="I46" s="3">
         <v>31500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
+      <c r="J46" s="3">
+        <v>23900</v>
       </c>
       <c r="K46" s="3">
         <v>23900</v>
@@ -2151,8 +2151,8 @@
       <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>200</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -2192,8 +2192,8 @@
       <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
+      <c r="J48" s="3">
+        <v>5000</v>
       </c>
       <c r="K48" s="3">
         <v>5000</v>
@@ -2233,8 +2233,8 @@
       <c r="I49" s="3">
         <v>64500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>8400</v>
       </c>
       <c r="K49" s="3">
         <v>8400</v>
@@ -2438,8 +2438,8 @@
       <c r="I54" s="3">
         <v>97100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
+      <c r="J54" s="3">
+        <v>37600</v>
       </c>
       <c r="K54" s="3">
         <v>37600</v>
@@ -2513,8 +2513,8 @@
       <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
+      <c r="J57" s="3">
+        <v>8800</v>
       </c>
       <c r="K57" s="3">
         <v>8800</v>
@@ -2554,8 +2554,8 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>6100</v>
       </c>
       <c r="K58" s="3">
         <v>6100</v>
@@ -2595,8 +2595,8 @@
       <c r="I59" s="3">
         <v>33000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+      <c r="J59" s="3">
+        <v>10400</v>
       </c>
       <c r="K59" s="3">
         <v>10400</v>
@@ -2636,8 +2636,8 @@
       <c r="I60" s="3">
         <v>33700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
+      <c r="J60" s="3">
+        <v>25300</v>
       </c>
       <c r="K60" s="3">
         <v>25300</v>
@@ -2882,8 +2882,8 @@
       <c r="I66" s="3">
         <v>34000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
+      <c r="J66" s="3">
+        <v>25300</v>
       </c>
       <c r="K66" s="3">
         <v>25300</v>
@@ -3104,8 +3104,8 @@
       <c r="I72" s="3">
         <v>-41900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
+      <c r="J72" s="3">
+        <v>-29900</v>
       </c>
       <c r="K72" s="3">
         <v>-29900</v>
@@ -3268,8 +3268,8 @@
       <c r="I76" s="3">
         <v>63100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
+      <c r="J76" s="3">
+        <v>12300</v>
       </c>
       <c r="K76" s="3">
         <v>12300</v>

--- a/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>LKCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E8" s="3">
         <v>37800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
       </c>
       <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>94700</v>
+      </c>
+      <c r="E9" s="3">
         <v>34300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5500</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E10" s="3">
         <v>3500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-100</v>
       </c>
       <c r="M10" s="3">
         <v>-100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,49 +882,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E12" s="3">
         <v>11400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,8 +968,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,8 +1012,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E17" s="3">
         <v>62900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,119 +1179,126 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>-400</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-19100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-16600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
         <v>2200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1269,78 +1309,84 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
@@ -1348,11 +1394,14 @@
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1617,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,90 +1705,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>400</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +1968,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E41" s="3">
         <v>14500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,81 +2054,87 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E43" s="3">
         <v>16100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>30300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>23900</v>
       </c>
       <c r="K43" s="3">
         <v>23900</v>
       </c>
       <c r="L43" s="3">
+        <v>23900</v>
+      </c>
+      <c r="M43" s="3">
         <v>4600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
@@ -2046,31 +2142,34 @@
       <c r="O44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2087,69 +2186,75 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E46" s="3">
         <v>30600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>23900</v>
       </c>
       <c r="K46" s="3">
         <v>23900</v>
       </c>
       <c r="L46" s="3">
+        <v>23900</v>
+      </c>
+      <c r="M46" s="3">
         <v>5600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E47" s="3">
         <v>4300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>61600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>53300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>16600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>200</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -2158,89 +2263,95 @@
         <v>200</v>
       </c>
       <c r="L47" s="3">
+        <v>200</v>
+      </c>
+      <c r="M47" s="3">
         <v>6200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5000</v>
       </c>
       <c r="K48" s="3">
         <v>5000</v>
       </c>
       <c r="L48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M48" s="3">
         <v>10400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>184700</v>
+      </c>
+      <c r="E49" s="3">
         <v>194200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>54700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>52700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>59000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>61800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>64500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>8400</v>
       </c>
       <c r="K49" s="3">
         <v>8400</v>
       </c>
       <c r="L49" s="3">
-        <v>500</v>
+        <v>8400</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
@@ -2249,10 +2360,13 @@
         <v>500</v>
       </c>
       <c r="O49" s="3">
+        <v>500</v>
+      </c>
+      <c r="P49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,16 +2450,19 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -2362,11 +2482,11 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
@@ -2374,8 +2494,11 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>265200</v>
+      </c>
+      <c r="E54" s="3">
         <v>233600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>129200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>117900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>91500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>97100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>37600</v>
       </c>
       <c r="K54" s="3">
         <v>37600</v>
       </c>
       <c r="L54" s="3">
+        <v>37600</v>
+      </c>
+      <c r="M54" s="3">
         <v>23000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,49 +2620,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
         <v>7200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4300</v>
       </c>
       <c r="H57" s="3">
         <v>4300</v>
       </c>
       <c r="I57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>8800</v>
       </c>
       <c r="K57" s="3">
         <v>8800</v>
       </c>
       <c r="L57" s="3">
-        <v>900</v>
+        <v>8800</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
       </c>
       <c r="N57" s="3">
+        <v>900</v>
+      </c>
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2554,108 +2688,117 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>6100</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>6100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>6100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E59" s="3">
         <v>74600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>10400</v>
       </c>
       <c r="K59" s="3">
         <v>10400</v>
       </c>
       <c r="L59" s="3">
-        <v>2600</v>
+        <v>10400</v>
       </c>
       <c r="M59" s="3">
         <v>2600</v>
       </c>
       <c r="N59" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="O59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E60" s="3">
         <v>81800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>73600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>25300</v>
       </c>
       <c r="K60" s="3">
         <v>25300</v>
       </c>
       <c r="L60" s="3">
-        <v>3500</v>
+        <v>25300</v>
       </c>
       <c r="M60" s="3">
         <v>3500</v>
       </c>
       <c r="N60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O60" s="3">
         <v>4000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2663,17 +2806,17 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>2700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>32900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2695,31 +2838,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E62" s="3">
         <v>15000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>34200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2736,8 +2882,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E66" s="3">
         <v>98200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>76600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>25300</v>
       </c>
       <c r="K66" s="3">
         <v>25300</v>
       </c>
       <c r="L66" s="3">
-        <v>3500</v>
+        <v>25300</v>
       </c>
       <c r="M66" s="3">
         <v>3500</v>
       </c>
       <c r="N66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3017,7 +3185,7 @@
         <v>200</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-182700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-141600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-113200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-92200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-73400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-41900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-29900</v>
       </c>
       <c r="K72" s="3">
         <v>-29900</v>
       </c>
       <c r="L72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="M72" s="3">
         <v>-5400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E76" s="3">
         <v>135200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>55000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>54200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>63100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>12300</v>
       </c>
       <c r="K76" s="3">
         <v>12300</v>
       </c>
       <c r="L76" s="3">
+        <v>12300</v>
+      </c>
+      <c r="M76" s="3">
         <v>19500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,40 +3629,41 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E83" s="3">
         <v>5700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -3472,8 +3671,11 @@
       <c r="O83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-34300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,26 +3955,27 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -3767,8 +3988,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -3776,8 +3997,11 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,34 +4085,37 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-68300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>600</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3894,13 +4124,16 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,72 +4323,78 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E100" s="3">
         <v>116200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>31400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4162,45 +4411,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>14400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>LKCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,221 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E8" s="3">
         <v>107200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>37800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
+        <v>200</v>
+      </c>
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E9" s="3">
         <v>94700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5500</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E10" s="3">
         <v>12500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-100</v>
       </c>
       <c r="N10" s="3">
         <v>-100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,52 +896,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E12" s="3">
         <v>34100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,8 +988,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,8 +1035,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1082,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1100,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E17" s="3">
         <v>147800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-40600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-25100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,128 +1213,135 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-400</v>
       </c>
       <c r="H20" s="3">
         <v>-400</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-32900</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>-19100</v>
+        <v>-27200</v>
       </c>
       <c r="F21" s="3">
-        <v>-16600</v>
+        <v>-24700</v>
       </c>
       <c r="G21" s="3">
-        <v>-14300</v>
+        <v>-13600</v>
       </c>
       <c r="H21" s="3">
-        <v>-18500</v>
+        <v>-20100</v>
       </c>
       <c r="I21" s="3">
-        <v>-7500</v>
+        <v>-15500</v>
       </c>
       <c r="J21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1312,84 +1352,90 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-42600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
@@ -1397,11 +1443,14 @@
       <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1493,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-41200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1634,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,8 +1681,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1728,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1775,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>400</v>
       </c>
       <c r="H32" s="3">
         <v>400</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-41200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1916,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-41200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2036,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,52 +2055,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>16400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,52 +2147,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E43" s="3">
         <v>40900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>30300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>23900</v>
       </c>
       <c r="L43" s="3">
         <v>23900</v>
       </c>
       <c r="M43" s="3">
+        <v>23900</v>
+      </c>
+      <c r="N43" s="3">
         <v>4600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2127,17 +2223,17 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -2145,16 +2241,19 @@
       <c r="P44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
+      <c r="E45" s="3">
+        <v>400</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
@@ -2171,8 +2270,8 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2189,75 +2288,81 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E46" s="3">
         <v>57700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>23900</v>
       </c>
       <c r="L46" s="3">
         <v>23900</v>
       </c>
       <c r="M46" s="3">
+        <v>23900</v>
+      </c>
+      <c r="N46" s="3">
         <v>5600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E47" s="3">
         <v>8600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>61600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>53300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>16600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>200</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -2266,95 +2371,101 @@
         <v>200</v>
       </c>
       <c r="M47" s="3">
+        <v>200</v>
+      </c>
+      <c r="N47" s="3">
         <v>6200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E48" s="3">
         <v>10100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5000</v>
       </c>
       <c r="L48" s="3">
         <v>5000</v>
       </c>
       <c r="M48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N48" s="3">
         <v>10400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E49" s="3">
         <v>184700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>194200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>54700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>52700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>59000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>61800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>64500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>8400</v>
       </c>
       <c r="L49" s="3">
         <v>8400</v>
       </c>
       <c r="M49" s="3">
-        <v>500</v>
+        <v>8400</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
@@ -2363,10 +2474,13 @@
         <v>500</v>
       </c>
       <c r="P49" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2523,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,19 +2570,22 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E52" s="3">
         <v>4200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1900</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
@@ -2485,11 +2605,11 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
@@ -2497,8 +2617,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2664,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E54" s="3">
         <v>265200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>233600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>129200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>117900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>91500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>97100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>37600</v>
       </c>
       <c r="L54" s="3">
         <v>37600</v>
       </c>
       <c r="M54" s="3">
+        <v>37600</v>
+      </c>
+      <c r="N54" s="3">
         <v>23000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2732,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,184 +2751,197 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4300</v>
       </c>
       <c r="I57" s="3">
         <v>4300</v>
       </c>
       <c r="J57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>8800</v>
       </c>
       <c r="L57" s="3">
         <v>8800</v>
       </c>
       <c r="M57" s="3">
-        <v>900</v>
+        <v>8800</v>
       </c>
       <c r="N57" s="3">
         <v>900</v>
       </c>
       <c r="O57" s="3">
+        <v>900</v>
+      </c>
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
-        <v>6100</v>
       </c>
       <c r="L58" s="3">
         <v>6100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>6100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E59" s="3">
         <v>92500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>10400</v>
       </c>
       <c r="L59" s="3">
         <v>10400</v>
       </c>
       <c r="M59" s="3">
-        <v>2600</v>
+        <v>10400</v>
       </c>
       <c r="N59" s="3">
         <v>2600</v>
       </c>
       <c r="O59" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="P59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E60" s="3">
         <v>101700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>81800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>73600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>30700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>25300</v>
       </c>
       <c r="L60" s="3">
         <v>25300</v>
       </c>
       <c r="M60" s="3">
-        <v>3500</v>
+        <v>25300</v>
       </c>
       <c r="N60" s="3">
         <v>3500</v>
       </c>
       <c r="O60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P60" s="3">
         <v>4000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2809,17 +2952,17 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>2700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>32900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2841,34 +2984,37 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E62" s="3">
         <v>9600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>34200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -2885,8 +3031,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3078,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3125,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3172,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E66" s="3">
         <v>119100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>98200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>76600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>25300</v>
       </c>
       <c r="L66" s="3">
         <v>25300</v>
       </c>
       <c r="M66" s="3">
-        <v>3500</v>
+        <v>25300</v>
       </c>
       <c r="N66" s="3">
         <v>3500</v>
       </c>
       <c r="O66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3240,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3285,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3332,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3188,7 +3356,7 @@
         <v>200</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3211,8 +3379,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3426,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-213900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-182700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-141600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-113200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-92200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-73400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-29900</v>
       </c>
       <c r="L72" s="3">
         <v>-29900</v>
       </c>
       <c r="M72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="N72" s="3">
         <v>-5400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3520,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3567,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3614,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E76" s="3">
         <v>145900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>135200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>55000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>54200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>58500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>63100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>12300</v>
       </c>
       <c r="L76" s="3">
         <v>12300</v>
       </c>
       <c r="M76" s="3">
+        <v>12300</v>
+      </c>
+      <c r="N76" s="3">
         <v>19500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3708,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-41200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,43 +3828,44 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>7800</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>5700</v>
+        <v>13400</v>
       </c>
       <c r="F83" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>3000</v>
+        <v>5600</v>
       </c>
       <c r="H83" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2800</v>
       </c>
-      <c r="I83" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -3674,8 +3873,11 @@
       <c r="P83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3920,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3967,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4014,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4061,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4108,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-19500</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
-        <v>-34300</v>
+        <v>-53800</v>
       </c>
       <c r="F89" s="3">
-        <v>-12300</v>
+        <v>-18400</v>
       </c>
       <c r="G89" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3600</v>
       </c>
-      <c r="H89" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,29 +4176,30 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1400</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -3991,8 +4212,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -4000,8 +4221,11 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4268,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,37 +4315,40 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-10100</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>-68300</v>
+        <v>-78400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1000</v>
+        <v>-48900</v>
       </c>
       <c r="G94" s="3">
-        <v>-18400</v>
+        <v>-19400</v>
       </c>
       <c r="H94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-14600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>600</v>
+        <v>-1200</v>
       </c>
       <c r="K94" s="3">
         <v>600</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4127,13 +4357,16 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4383,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4428,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4475,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4522,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,79 +4569,85 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>32700</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
-        <v>116200</v>
+        <v>148900</v>
       </c>
       <c r="F100" s="3">
-        <v>13000</v>
+        <v>84600</v>
       </c>
       <c r="G100" s="3">
-        <v>18500</v>
+        <v>31500</v>
       </c>
       <c r="H100" s="3">
-        <v>31400</v>
+        <v>-16900</v>
       </c>
       <c r="I100" s="3">
+        <v>35400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L100" s="3">
         <v>4000</v>
       </c>
-      <c r="J100" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K100" s="3">
-        <v>4000</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-800</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
-        <v>100</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4414,48 +4663,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>2300</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>14400</v>
+        <v>16700</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>18000</v>
       </c>
       <c r="G102" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="H102" s="3">
-        <v>3200</v>
+        <v>-6000</v>
       </c>
       <c r="I102" s="3">
-        <v>-700</v>
+        <v>2500</v>
       </c>
       <c r="J102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>LKCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,234 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E8" s="3">
         <v>62800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>107200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>200</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
       <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E9" s="3">
         <v>54400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>94700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>34300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5500</v>
-      </c>
-      <c r="N9" s="3">
-        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
       <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E10" s="3">
         <v>8400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-100</v>
       </c>
       <c r="O10" s="3">
         <v>-100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,55 +910,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E12" s="3">
         <v>25000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,8 +1008,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,8 +1058,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,8 +1108,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,102 +1127,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>91000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>147800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-40600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-25100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,137 +1247,144 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-400</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
-        <v>-27200</v>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>-24700</v>
+        <v>-32900</v>
       </c>
       <c r="G21" s="3">
-        <v>-13600</v>
+        <v>-19100</v>
       </c>
       <c r="H21" s="3">
-        <v>-20100</v>
+        <v>-16600</v>
       </c>
       <c r="I21" s="3">
-        <v>-15500</v>
+        <v>-14300</v>
       </c>
       <c r="J21" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-12700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1355,90 +1395,96 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-42600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
@@ -1446,11 +1492,14 @@
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,102 +1545,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-41200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,8 +1695,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1684,8 +1745,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1795,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,102 +1845,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>400</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-41200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,107 +1995,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-41200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2122,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,55 +2142,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2150,55 +2240,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E43" s="3">
         <v>50900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>23900</v>
       </c>
       <c r="M43" s="3">
         <v>23900</v>
       </c>
       <c r="N43" s="3">
+        <v>23900</v>
+      </c>
+      <c r="O43" s="3">
         <v>4600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2226,17 +2322,17 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2244,19 +2340,22 @@
       <c r="Q44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>400</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="F45" s="3">
+        <v>400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -2273,8 +2372,8 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2291,81 +2390,87 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E46" s="3">
         <v>52300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>57700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>41000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31500</v>
-      </c>
-      <c r="L46" s="3">
-        <v>23900</v>
       </c>
       <c r="M46" s="3">
         <v>23900</v>
       </c>
       <c r="N46" s="3">
+        <v>23900</v>
+      </c>
+      <c r="O46" s="3">
         <v>5600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E47" s="3">
         <v>9800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>61600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>53300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>16600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>200</v>
       </c>
       <c r="L47" s="3">
         <v>200</v>
@@ -2374,101 +2479,107 @@
         <v>200</v>
       </c>
       <c r="N47" s="3">
+        <v>200</v>
+      </c>
+      <c r="O47" s="3">
         <v>6200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E48" s="3">
         <v>7900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5000</v>
       </c>
       <c r="M48" s="3">
         <v>5000</v>
       </c>
       <c r="N48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O48" s="3">
         <v>10400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E49" s="3">
         <v>177100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>184700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>194200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>54700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>52700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>59000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>61800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>64500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>8400</v>
       </c>
       <c r="M49" s="3">
         <v>8400</v>
       </c>
       <c r="N49" s="3">
-        <v>500</v>
+        <v>8400</v>
       </c>
       <c r="O49" s="3">
         <v>500</v>
@@ -2477,10 +2588,13 @@
         <v>500</v>
       </c>
       <c r="Q49" s="3">
+        <v>500</v>
+      </c>
+      <c r="R49" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2640,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,23 +2690,26 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E52" s="3">
         <v>4900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2608,20 +2728,23 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,55 +2790,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>233600</v>
+      </c>
+      <c r="E54" s="3">
         <v>252000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>265200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>233600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>129200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>117900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>91500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>37600</v>
       </c>
       <c r="M54" s="3">
         <v>37600</v>
       </c>
       <c r="N54" s="3">
+        <v>37600</v>
+      </c>
+      <c r="O54" s="3">
         <v>23000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2862,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,55 +2882,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E57" s="3">
         <v>8000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4300</v>
       </c>
       <c r="J57" s="3">
         <v>4300</v>
       </c>
       <c r="K57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>8800</v>
       </c>
       <c r="M57" s="3">
         <v>8800</v>
       </c>
       <c r="N57" s="3">
-        <v>900</v>
+        <v>8800</v>
       </c>
       <c r="O57" s="3">
         <v>900</v>
       </c>
       <c r="P57" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2825,123 +2959,132 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
-        <v>6100</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>6100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>6100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E59" s="3">
         <v>99400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>92500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>10400</v>
       </c>
       <c r="M59" s="3">
         <v>10400</v>
       </c>
       <c r="N59" s="3">
-        <v>2600</v>
+        <v>10400</v>
       </c>
       <c r="O59" s="3">
         <v>2600</v>
       </c>
       <c r="P59" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="Q59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E60" s="3">
         <v>107400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>101700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>81800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>73600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>25300</v>
       </c>
       <c r="M60" s="3">
         <v>25300</v>
       </c>
       <c r="N60" s="3">
-        <v>3500</v>
+        <v>25300</v>
       </c>
       <c r="O60" s="3">
         <v>3500</v>
       </c>
       <c r="P60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>4000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2955,17 +3098,17 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>2700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>32900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2987,38 +3130,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E62" s="3">
         <v>7800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>34200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3034,8 +3180,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3230,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3280,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,55 +3330,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E66" s="3">
         <v>124400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>119100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>98200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>76600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>25300</v>
       </c>
       <c r="M66" s="3">
         <v>25300</v>
       </c>
       <c r="N66" s="3">
-        <v>3500</v>
+        <v>25300</v>
       </c>
       <c r="O66" s="3">
         <v>3500</v>
       </c>
       <c r="P66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3402,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3450,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,13 +3500,16 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>200</v>
@@ -3359,7 +3527,7 @@
         <v>200</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3382,8 +3550,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,55 +3600,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-235200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-213900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-182700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-141600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-113200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-92200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-73400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-41900</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-29900</v>
       </c>
       <c r="M72" s="3">
         <v>-29900</v>
       </c>
       <c r="N72" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="O72" s="3">
         <v>-5400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3700,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3750,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,55 +3800,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E76" s="3">
         <v>127400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>145900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>135200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>55000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>54200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>58500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>63100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>12300</v>
       </c>
       <c r="M76" s="3">
         <v>12300</v>
       </c>
       <c r="N76" s="3">
+        <v>12300</v>
+      </c>
+      <c r="O76" s="3">
         <v>19500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,107 +3900,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-41200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,46 +4027,47 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3">
-        <v>13400</v>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>7800</v>
       </c>
       <c r="G83" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H83" s="3">
-        <v>-2800</v>
+        <v>2600</v>
       </c>
       <c r="I83" s="3">
-        <v>5900</v>
+        <v>3000</v>
       </c>
       <c r="J83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K83" s="3">
         <v>-2100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
@@ -3876,8 +4075,11 @@
       <c r="Q83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4125,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4175,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4225,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4275,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,55 +4325,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="3">
-        <v>-53800</v>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F89" s="3">
-        <v>-18400</v>
+        <v>-19500</v>
       </c>
       <c r="G89" s="3">
-        <v>-15800</v>
+        <v>-34300</v>
       </c>
       <c r="H89" s="3">
-        <v>14700</v>
+        <v>-12300</v>
       </c>
       <c r="I89" s="3">
-        <v>-18300</v>
+        <v>-3600</v>
       </c>
       <c r="J89" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,28 +4397,29 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-3700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1500</v>
+        <v>-2000</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>100</v>
-      </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4215,8 +4436,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -4224,8 +4445,11 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4495,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,40 +4545,43 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>-78400</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
-        <v>-48900</v>
+        <v>-10100</v>
       </c>
       <c r="G94" s="3">
-        <v>-19400</v>
+        <v>-68300</v>
       </c>
       <c r="H94" s="3">
-        <v>-3800</v>
+        <v>-1000</v>
       </c>
       <c r="I94" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-14600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>600</v>
       </c>
       <c r="L94" s="3">
         <v>600</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4360,13 +4590,16 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,8 +4617,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4431,8 +4665,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4715,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4765,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,85 +4815,91 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
-        <v>148900</v>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
-        <v>84600</v>
+        <v>32700</v>
       </c>
       <c r="G100" s="3">
-        <v>31500</v>
+        <v>116200</v>
       </c>
       <c r="H100" s="3">
-        <v>-16900</v>
+        <v>13000</v>
       </c>
       <c r="I100" s="3">
-        <v>35400</v>
+        <v>18500</v>
       </c>
       <c r="J100" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4666,51 +4915,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="3">
-        <v>16700</v>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>18000</v>
+        <v>2300</v>
       </c>
       <c r="G102" s="3">
-        <v>-3600</v>
+        <v>14400</v>
       </c>
       <c r="H102" s="3">
-        <v>-6000</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>2500</v>
+        <v>-3500</v>
       </c>
       <c r="J102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LKCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>LKCO</t>
   </si>
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>93600</v>
+        <v>30800</v>
       </c>
       <c r="E8" s="3">
         <v>62800</v>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>77900</v>
+        <v>23500</v>
       </c>
       <c r="E9" s="3">
         <v>54400</v>
@@ -847,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15700</v>
+        <v>7300</v>
       </c>
       <c r="E10" s="3">
         <v>8400</v>
@@ -917,7 +917,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>49900</v>
+        <v>24900</v>
       </c>
       <c r="E12" s="3">
         <v>25000</v>
@@ -1133,8 +1133,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>63200</v>
       </c>
       <c r="E17" s="3">
         <v>91000</v>
@@ -1183,8 +1183,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-32400</v>
       </c>
       <c r="E18" s="3">
         <v>-28200</v>
@@ -1253,8 +1253,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>9200</v>
       </c>
       <c r="E20" s="3">
         <v>600</v>
@@ -1354,7 +1354,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3400</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
         <v>1800</v>
@@ -1404,7 +1404,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>54200</v>
+        <v>-24700</v>
       </c>
       <c r="E23" s="3">
         <v>-29400</v>
@@ -1454,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3900</v>
+        <v>-3400</v>
       </c>
       <c r="E24" s="3">
         <v>-500</v>
@@ -1554,7 +1554,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-50200</v>
+        <v>-21400</v>
       </c>
       <c r="E26" s="3">
         <v>-28900</v>
@@ -1604,7 +1604,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-52500</v>
+        <v>-21800</v>
       </c>
       <c r="E27" s="3">
         <v>-30800</v>
@@ -1853,8 +1853,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-9200</v>
       </c>
       <c r="E32" s="3">
         <v>-600</v>
@@ -1904,7 +1904,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-52500</v>
+        <v>-21800</v>
       </c>
       <c r="E33" s="3">
         <v>-30800</v>
@@ -2004,7 +2004,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-52500</v>
+        <v>-21800</v>
       </c>
       <c r="E35" s="3">
         <v>-30800</v>
@@ -2148,8 +2148,8 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
+      <c r="D41" s="3">
+        <v>1300</v>
       </c>
       <c r="E41" s="3">
         <v>1000</v>
@@ -2699,7 +2699,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="E52" s="3">
         <v>4900</v>
@@ -2939,25 +2939,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>51400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86700</v>
+        <v>35300</v>
       </c>
       <c r="E59" s="3">
         <v>99400</v>
@@ -3509,7 +3509,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="E70" s="3">
         <v>200</v>
@@ -3964,7 +3964,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-52500</v>
+        <v>-21800</v>
       </c>
       <c r="E81" s="3">
         <v>-30800</v>
